--- a/Comparisons of execution time with timer parameters.xlsx
+++ b/Comparisons of execution time with timer parameters.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Puneet Shrivas\Desktop\Advitiy\Git\Timed-SPI-transmissions\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
-    <t>SOFTWARE SIMULATIONS</t>
-  </si>
-  <si>
     <t>Parameters</t>
   </si>
   <si>
@@ -95,28 +100,37 @@
   </si>
   <si>
     <t>SPI prescaler : 16</t>
+  </si>
+  <si>
+    <t>SOFTWARE SIMULATION Results</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,124 +138,393 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.29"/>
-    <col customWidth="1" min="2" max="2" width="22.29"/>
-    <col customWidth="1" min="3" max="3" width="15.71"/>
-    <col customWidth="1" min="4" max="4" width="19.57"/>
-    <col customWidth="1" min="5" max="5" width="20.29"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
-        <v>654.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2">
+        <v>1187</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C9" si="0">B6-B5</f>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>1187.0</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ref="C6:C9" si="1">B6-B5</f>
+      <c r="B7" s="2">
+        <v>1718</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>2251</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
         <v>533</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1718.0</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>531</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="2">
-        <v>2251.0</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>533</v>
-      </c>
-    </row>
-    <row r="9">
+    <row r="9" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
-        <v>2782.0</v>
+        <v>2782</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>531</v>
       </c>
       <c r="D9" s="3">
@@ -249,353 +532,357 @@
         <v>532</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2">
         <v>539.63</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2">
         <v>1071.69</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:C15" si="2">B12-B11</f>
-        <v>532.06</v>
-      </c>
-    </row>
-    <row r="13">
+        <f t="shared" ref="C12:C15" si="1">B12-B11</f>
+        <v>532.06000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2">
         <v>1603.63</v>
       </c>
       <c r="C13">
-        <f t="shared" si="2"/>
-        <v>531.94</v>
-      </c>
-    </row>
-    <row r="14">
+        <f t="shared" si="1"/>
+        <v>531.94000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>2135.69</v>
       </c>
       <c r="C14">
-        <f t="shared" si="2"/>
-        <v>532.06</v>
-      </c>
-    </row>
-    <row r="15">
+        <f t="shared" si="1"/>
+        <v>532.05999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>2667.63</v>
       </c>
       <c r="C15">
-        <f t="shared" si="2"/>
-        <v>531.94</v>
+        <f t="shared" si="1"/>
+        <v>531.94000000000005</v>
       </c>
       <c r="D15" s="3">
         <f>AVERAGE(C12:C15)</f>
         <v>532</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="B19" s="2">
         <v>540.23</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="2">
         <v>1072.25</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:C23" si="3">B20-B19</f>
+        <f t="shared" ref="C20:C23" si="2">B20-B19</f>
         <v>532.02</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="2">
         <v>1604.14</v>
       </c>
       <c r="C21">
-        <f t="shared" si="3"/>
-        <v>531.89</v>
-      </c>
-    </row>
-    <row r="22">
+        <f t="shared" si="2"/>
+        <v>531.8900000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>2136.16</v>
       </c>
       <c r="C22">
+        <f t="shared" si="2"/>
+        <v>532.01999999999975</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>2668.05</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>531.89000000000033</v>
+      </c>
+      <c r="D23">
+        <f>AVERAGE(C20:C23)</f>
+        <v>531.95500000000004</v>
+      </c>
+      <c r="E23">
+        <f>ABS(532-D23)</f>
+        <v>4.4999999999959073E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="2">
+        <v>540.36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1072.3900000000001</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:C29" si="3">B26-B25</f>
+        <v>532.03000000000009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1604.41</v>
+      </c>
+      <c r="C27">
         <f t="shared" si="3"/>
         <v>532.02</v>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" s="2">
-        <v>2668.05</v>
-      </c>
-      <c r="C23">
+    <row r="28" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>2136.4299999999998</v>
+      </c>
+      <c r="C28">
         <f t="shared" si="3"/>
-        <v>531.89</v>
-      </c>
-      <c r="D23">
-        <f>AVERAGE(C20:C23)</f>
-        <v>531.955</v>
-      </c>
-      <c r="E23">
-        <f>abs(532-D23)</f>
-        <v>0.045</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="2">
-        <v>540.36</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="2">
-        <v>1072.39</v>
-      </c>
-      <c r="C26">
-        <f t="shared" ref="C26:C29" si="4">B26-B25</f>
-        <v>532.03</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1604.41</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="4"/>
-        <v>532.02</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="2">
-        <v>2136.43</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="4"/>
-        <v>532.02</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>532.01999999999975</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>2668.46</v>
       </c>
       <c r="C29">
-        <f t="shared" si="4"/>
-        <v>532.03</v>
+        <f t="shared" si="3"/>
+        <v>532.0300000000002</v>
       </c>
       <c r="D29">
         <f>AVERAGE(C26:C29)</f>
-        <v>532.025</v>
+        <v>532.02500000000009</v>
       </c>
       <c r="E29">
-        <f>abs(532-D29)</f>
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="30">
+        <f>ABS(532-D29)</f>
+        <v>2.5000000000090949E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="B33" s="2">
         <v>540.64</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" s="2">
         <v>1072.79</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:C37" si="5">B34-B33</f>
+        <f t="shared" ref="C34:C37" si="4">B34-B33</f>
         <v>532.15</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B35" s="2">
         <v>1605.09</v>
       </c>
       <c r="C35">
-        <f t="shared" si="5"/>
-        <v>532.3</v>
-      </c>
-    </row>
-    <row r="36">
+        <f t="shared" si="4"/>
+        <v>532.29999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>2137.25</v>
       </c>
       <c r="C36">
-        <f t="shared" si="5"/>
-        <v>532.16</v>
-      </c>
-    </row>
-    <row r="37">
+        <f t="shared" si="4"/>
+        <v>532.16000000000008</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>2669.54</v>
       </c>
       <c r="C37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>532.29</v>
       </c>
       <c r="D37">
         <f>AVERAGE(C34:C37)</f>
-        <v>532.225</v>
+        <v>532.22499999999991</v>
       </c>
       <c r="E37">
-        <f>abs(532-D37)</f>
-        <v>0.225</v>
-      </c>
-    </row>
-    <row r="39">
+        <f>ABS(532-D37)</f>
+        <v>0.22499999999990905</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" s="2">
         <v>540.09</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40" s="2">
         <v>1071.71</v>
       </c>
       <c r="C40">
-        <f t="shared" ref="C40:C43" si="6">B40-B39</f>
+        <f t="shared" ref="C40:C43" si="5">B40-B39</f>
         <v>531.62</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" s="2">
         <v>1603.46</v>
       </c>
       <c r="C41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>531.75</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>2135.08</v>
       </c>
       <c r="C42">
-        <f t="shared" si="6"/>
-        <v>531.62</v>
-      </c>
-    </row>
-    <row r="43">
+        <f t="shared" si="5"/>
+        <v>531.61999999999989</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <v>2666.83</v>
       </c>
       <c r="C43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>531.75</v>
       </c>
       <c r="D43">
         <f>AVERAGE(C40:C43)</f>
-        <v>531.685</v>
+        <v>531.68499999999995</v>
       </c>
       <c r="E43">
-        <f>abs(532-D43)</f>
-        <v>0.315</v>
-      </c>
-    </row>
-    <row r="46" ht="17.25">
+        <f>ABS(532-D43)</f>
+        <v>0.31500000000005457</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="1" t="s">
+    </row>
+    <row r="49" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="E49" s="2">
         <f>132/14.746</f>
-        <v>8.95158009</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>8.9515800895158009</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A17:E17"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>